--- a/sputnik/personal/uch/uch176.xlsx
+++ b/sputnik/personal/uch/uch176.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -34,13 +31,22 @@
   </si>
   <si>
     <t>Начислен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №176</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты на 69 дн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +58,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -71,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,37 +131,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -165,16 +152,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -485,7 +477,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -500,9 +492,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -515,7 +509,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>9973.9500000000007</v>
@@ -527,7 +521,7 @@
         <v>43386</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -539,7 +533,7 @@
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>9832.35</v>
@@ -547,15 +541,27 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="12">
+        <v>43808</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6">
+        <v>9832.35</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="13">
+        <v>43808</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14">
+        <v>678.43</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -565,9 +571,6 @@
       <c r="D8" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch176.xlsx
+++ b/sputnik/personal/uch/uch176.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 69 дн</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021(с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,9 +568,15 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>11062.5</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch176.xlsx
+++ b/sputnik/personal/uch/uch176.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021(с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплачены пени за просрочку оплаты на 69 дн</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -170,6 +173,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,6 +584,42 @@
         <v>11062.5</v>
       </c>
       <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>44104</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>678.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44104</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
+        <v>11062.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch176.xlsx
+++ b/sputnik/personal/uch/uch176.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Оплачены пени за просрочку оплаты на 69 дн</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,9 +613,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11797.05</v>
+      </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch176.xlsx
+++ b/sputnik/personal/uch/uch176.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,14 +589,14 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>44104</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="D9" s="14">
         <v>678.43</v>
       </c>
     </row>
